--- a/data/c_acv.xlsx
+++ b/data/c_acv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.8940332097689183</v>
+        <v>0.8968602526416143</v>
       </c>
       <c r="D2">
-        <v>0.8671803255788687</v>
+        <v>0.01556772844650207</v>
       </c>
       <c r="E2">
-        <v>0.8908182930520236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.8682243584650831</v>
+      </c>
+      <c r="F2">
+        <v>0.01276792645690687</v>
+      </c>
+      <c r="G2">
+        <v>0.8919811445671459</v>
+      </c>
+      <c r="H2">
+        <v>0.009774898088387626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.8877631133058956</v>
+        <v>0.8942570376843835</v>
       </c>
       <c r="D3">
-        <v>0.8588182568363543</v>
+        <v>0.01515190705209205</v>
       </c>
       <c r="E3">
-        <v>0.8781151296132942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.8474034056301475</v>
+      </c>
+      <c r="F3">
+        <v>0.01803689651739116</v>
+      </c>
+      <c r="G3">
+        <v>0.8827075554143164</v>
+      </c>
+      <c r="H3">
+        <v>0.009234563327197241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.9057713549575371</v>
+        <v>0.9101994120918407</v>
       </c>
       <c r="D4">
-        <v>0.9115601710414332</v>
+        <v>0.01465764085602997</v>
       </c>
       <c r="E4">
-        <v>0.8906589441062879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.913611662826726</v>
+      </c>
+      <c r="F4">
+        <v>0.01148645755386763</v>
+      </c>
+      <c r="G4">
+        <v>0.8936053070628425</v>
+      </c>
+      <c r="H4">
+        <v>0.008838697180891017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.9130068576957004</v>
+        <v>0.9085752495961442</v>
       </c>
       <c r="D5">
-        <v>0.9266754274095709</v>
+        <v>0.00870076393900018</v>
       </c>
       <c r="E5">
-        <v>0.8977317350151199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.9274391568019915</v>
+      </c>
+      <c r="F5">
+        <v>0.01110012290826973</v>
+      </c>
+      <c r="G5">
+        <v>0.898160271179259</v>
+      </c>
+      <c r="H5">
+        <v>0.007690739122374946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.8900130117726794</v>
+        <v>0.8955589099864939</v>
       </c>
       <c r="D6">
-        <v>0.8522258409149114</v>
+        <v>0.01475598221160776</v>
       </c>
       <c r="E6">
-        <v>0.8765085766465843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.8449619978284473</v>
+      </c>
+      <c r="F6">
+        <v>0.01668202432737735</v>
+      </c>
+      <c r="G6">
+        <v>0.8843346309684594</v>
+      </c>
+      <c r="H6">
+        <v>0.009569723482387785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.8980536664485104</v>
+        <v>0.9315113476867669</v>
       </c>
       <c r="D7">
-        <v>0.8554423097319266</v>
+        <v>0.01089487953014448</v>
       </c>
       <c r="E7">
-        <v>0.8859947539015917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.9289031010831282</v>
+      </c>
+      <c r="F7">
+        <v>0.01043122639916136</v>
+      </c>
+      <c r="G7">
+        <v>0.9186610524085698</v>
+      </c>
+      <c r="H7">
+        <v>0.009302873754011653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.7795420269910212</v>
+        <v>0.9186602579380843</v>
       </c>
       <c r="D8">
-        <v>0.7644298748231252</v>
+        <v>0.01302477457955431</v>
       </c>
       <c r="E8">
-        <v>0.8133159843030942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.9147771572251553</v>
-      </c>
-      <c r="D9">
-        <v>0.9123649349540708</v>
-      </c>
-      <c r="E9">
-        <v>0.9038441639742041</v>
+        <v>0.9144273191917586</v>
+      </c>
+      <c r="F8">
+        <v>0.01002975043312252</v>
+      </c>
+      <c r="G8">
+        <v>0.9071086570800562</v>
+      </c>
+      <c r="H8">
+        <v>0.006729924426381837</v>
       </c>
     </row>
   </sheetData>
